--- a/PlannedSchedule.xlsx
+++ b/PlannedSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\git\UnityGameProject1-Agility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75AACDE5-C9BE-48BD-857F-053DBB0F06CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63F6218-E6C2-4B26-8ED9-A36EB2E3F090}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{B1897063-B315-409D-87F5-01AE0BC7B881}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
